--- a/Doggo details.xlsx
+++ b/Doggo details.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megangurney/Documents/Code First Girls/Final-Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaormesher/Documents/coding_course/Final-Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BC38D-4353-7D46-818B-3AB8AED518F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="440" windowWidth="11460" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -357,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +369,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,6 +380,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -645,81 +650,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+    <row r="1" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9"/>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -727,26 +784,28 @@
     </row>
     <row r="5" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -754,28 +813,28 @@
     </row>
     <row r="6" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -783,28 +842,26 @@
     </row>
     <row r="7" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -812,28 +869,26 @@
     </row>
     <row r="8" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -841,26 +896,26 @@
     </row>
     <row r="9" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -868,83 +923,55 @@
     </row>
     <row r="10" spans="1:11" ht="22" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>51</v>
-      </c>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -962,43 +989,17 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
-    <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
